--- a/Resources/edmonton-ab.xlsx
+++ b/Resources/edmonton-ab.xlsx
@@ -458,139 +458,139 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Seoul Fried Chicken</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>Fast food</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10145 104 St Nw, Edmonton, AB T5J 0Z9</t>
+          <t>10365 111th Street, Edmonton, AB T5K 2V3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cosmic Pizza and Donair</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Burgers</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10412 102 Ave, Edmonton, AB T5J 0B4</t>
+          <t>8415 109th Street, Edmonton, AB T6E</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yang's Braised Chicken Rice</t>
+          <t>Subway</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>American</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10167 109 St Nw, Edmonton, AB T5J 3M5</t>
+          <t>10111 104 Ave Nw, Edmonton, AB T5J 4X1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Freshslice Pizza</t>
+          <t>Burger King</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>American</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10071 109 St Nw, Edmonton, AB T5J 0J7</t>
+          <t>13338-137 Avenue, Edmonton, AB T5L 2A9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ayco Bakery &amp; Cafe</t>
+          <t>7-Eleven</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Bakery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10551 Jasper Avenue, Edmonton, AB T5J</t>
+          <t>11528 - 107 Avenue, Edmonton, AB T5H</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blaze Pizza</t>
+          <t>A&amp;W</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Fast food</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12010 104 Avenue Northwest, Edmonton, AB T5K 0G6</t>
+          <t>8115 101 St Nw, Edmonton, AB T6E 1Z2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Papa John's Pizza</t>
+          <t>Starbucks</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -600,261 +600,261 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Bakery</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11955 82 St Nw, Edmonton, AB T5B</t>
+          <t>10001 107th Street, Edmonton, AB T5J 1J1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PhatBar Bakery &amp; Café</t>
+          <t>Harvey's</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Burgers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10813 82 Avenue Northwest Edmonton, Ab T6e 2b2 Canada, </t>
+          <t>10358 109 St Nw, Edmonton, AB T5J</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Panago Pizza</t>
+          <t>Denny's</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fast food</t>
+          <t>Breakfast and brunch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10742 82nd Avenue, Edmonton, AB T6E</t>
+          <t>10803-104 Ave Nw, Edmonton, AB T5J 4Z5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Ricky's All Day Grill</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fast food</t>
+          <t>Breakfast and brunch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10365 111th Street, Edmonton, AB T5K 2V3</t>
+          <t>10140 109 Street, Edmonton, AB T5J 1M7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nhon Hoa Sandwich Bar Whyte Ave</t>
+          <t>Tim Hortons</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Bakery</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10154 82 Ave Nw, Edmonton, AB T6E</t>
+          <t>Unit # 240 - 10111 104 Avenue , Unit 240, Edmonton, AB T5J</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cinnaholic Bakery</t>
+          <t>Cora Breakfast and Lunch</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Desserts</t>
+          <t>Breakfast and brunch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10345 82 Ave Nw Unit 101, Edmonton, AB T6E</t>
+          <t>10041 106 Th Street Nw, Edmonton, AB T5J</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Soban Sushi &amp; Asian Taste</t>
+          <t>A&amp;W</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sushi</t>
+          <t>Fast food</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7450 82 Avenue Northwest, Edmonton, AB T6B 0G2</t>
+          <t>5011 137th Avenue Ne, Edmonton, AB T5A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Panini's Italian Cucina</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8544 Jasper Ave, Edmonton, AB T5H</t>
+          <t>5004 98 Ave Nw, Edmonton, NAMER T6A 0A1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dairy Queen</t>
+          <t>IHOP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Burgers</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10859-101st St, Edmonton, AB T5H</t>
+          <t>3921 Calgary Trail, Edmonton, AB T6H 4J8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Burger King</t>
+          <t>IHOP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Breakfast and brunch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13733 66th Street, Edmonton, AB T5C 3E1</t>
+          <t>15130 127th St, Edmonton, AB T6V</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Watts Cookin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Burgers</t>
+          <t>Comfort food</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8415 109th Street, Edmonton, AB T6E</t>
+          <t>12116 107 St Nw, Edmonton, AB T5G</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Copper Branch</t>
+          <t>Second Cup</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vegetarian</t>
+          <t>Coffee &amp; tea</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10316 Jasper Avenue, Edmonton, Alberta T5J</t>
+          <t>101st Avenue Nw, 7477, Edmonton, AB T6A 3Z5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Checkers Pizza &amp; Kabab</t>
+          <t>Tantalizers African Express</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -864,261 +864,261 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>African</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10658 82 Avenue Northwest, Edmonton, NAMER T6E</t>
+          <t>12424 118 Ave Nw, Edmonton, AB T5L 2K4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Press'd Sandwich Shop</t>
+          <t>Langano Skies Ethiopian Restaurant</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sandwiches</t>
+          <t>Ethiopian</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Affordable delivery spot, popular for Turkey And Cheddar Sandwich and California Club Sandwich.</t>
+          <t>9906 72 Ave Nw, Edmonton, AB T6E 0Z3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chicko Chicken Edmonton</t>
+          <t>Booster Juice</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>Sandwich</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3509 Tudor Glen Market, St Albert, AB T8N</t>
+          <t>7436 68 Avenue Northwest, Edmonton, NAMER T6E</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Subway</t>
+          <t>CoCo Fresh Tea &amp; Juice</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Bubble tea</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10633 51 Avenue Northwest, Edmonton, AB T6H 0K8</t>
+          <t xml:space="preserve"> 885 Tamarack Way Northwest, Edmonton, T6t 0n3, </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Red Swan Pizza</t>
+          <t>CoCo Fresh Tea &amp; Juice - Windermere</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10621 100 Ave Nw, Edmonton, AB T5K</t>
+          <t>1307 Windermere Way Southwest, Edmonton, NAMER T6W 0P1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Namaste Vegetarian</t>
+          <t>Crave Cupcakes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Desserts</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4964 98 Ave Nw, Edmonton, AB T6B 2Y7</t>
+          <t>7929 104 St Nw, Edmonton, AB T6E 4C9</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chicago Deep Dish Pizza</t>
+          <t>Taste Blends</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10023 107 Ave Nw, Edmonton, AB T5H 4L4</t>
+          <t>Offers Drinks, Appetizers, Breads And More, Vegetarian Curries, Non Vegetarian Curries and more.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Namaste India</t>
+          <t>Teacup2Go</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Bubble tea</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8114 104 St Nw, Edmonton, AB T6E</t>
+          <t>9332 34 Avenue Northwest, Edmonton, AB T6E 5X8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Original Joe's</t>
+          <t>Fine Pizza &amp; Donair</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Halal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10023 107 Ave, Edmonton, Ab T5h 2s4, Canada, T5H 2S1</t>
+          <t>2960 Ellwood Drive Sw, Edmonton, NAMER T6X</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dorinku Osaka</t>
+          <t>Pho Hoan Pasteur</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12520 102nd Avenue, Edmonton, AB T5N 0M3</t>
+          <t>14062 127 Street Northwest, Edmonton, AB T6V 1K4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Padmanadi</t>
+          <t>Heeretea 東喜茶 Edmonton</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Vegetarian</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10328 Jasper Avenue, Edmonton, AB T5J 1Y7</t>
+          <t>16948 107 Ave Nw, Edmonton, AB T5P 4C3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Popeyes Louisiana Kitchen</t>
+          <t>Sam’s Pizza and Donair</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10740 101 Street Northwest, Edmonton, AB T5H</t>
+          <t>11116 - 82 Avenue Nw Garneau, Edmonton, AB T6G</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Raja Foods</t>
+          <t>Boba boy</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1128,437 +1128,437 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Bubble tea</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10188 109 St Nw, Edmonton, AB T5J</t>
+          <t>18236 89 Ave Nw, Edmonton, Ab T5T</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mikado Restaurant</t>
+          <t>Palabok House</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5173 55 Ave Nw, Edmonton, AB T6B</t>
+          <t xml:space="preserve">20013 Lessard Road Northwest Edmonton, Ab T6m 0k4 Canada, </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ Tasty Bites</t>
+          <t>Swagat India Bistro &amp; Bar</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Comfort food</t>
+          <t>Asian fusion</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10350 109 St Nw, Edmonton, NAMER T5J</t>
+          <t>10525 51 Avenue Northwest, Edmonton, AB T6H 0K5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>Urban Plant Cafe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bakery</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9711 107 Avenue Northwest, Edmonton, NAMER T5H 0V1</t>
+          <t xml:space="preserve"> 9737 118 Ave Nw, Edmonton, T5G</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jimmy the Greek</t>
+          <t>Mikado Restaurant</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11926 104th Ave Nw, Edmonton, AB T5N</t>
+          <t>18a 9261 34 Ave Nw, Edmonton, AB T6E</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Viphalay Laos &amp; Thai Restaurant</t>
+          <t>Menchie's Frozen Yogurt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Desserts</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>109 Princess Elizabeth Ave Nw, 437, Edmonton, Alberta T5G 3A6</t>
+          <t>9942 170 Street Northwest, Edmonton, AB T5T</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tiffin India's Fresh Kitchen</t>
+          <t>Pizza Unlimited &amp; Fried Chicken</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10523 99 Ave, Edmonton, Ab T5K</t>
+          <t>8705 109 St Nw, Edmonton, Alberta T6G 2L5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A&amp;W</t>
+          <t>Kingdom of Spices</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fast food</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10404 Jasper Ave, Edmonton, NAMER T5J 4R5</t>
+          <t>2386 23 Ave Nw, Edmonton, AB T6T 0R1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Emperor's Palace</t>
+          <t>Garlic &amp; Greens</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7455 101 Ave Nw, Edmonton, AB T6A 3Z5</t>
+          <t>4547 118 Avenue Northwest, Edmonton, AB T5W 1A8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Osmow's</t>
+          <t>Nosh Cafe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mediterranean</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10638 100 Street, Edmonton, AB T5H</t>
+          <t>5611 23 Avenue Northwest, Edmonton, AB T6L 7B9</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7-Eleven</t>
+          <t>Rosso Pizzeria</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bakery</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Unit # 413 1 Kingsway Garden Mall Northwest, Edmonton, AB T5G</t>
+          <t>15945 97 Street Northwest , Edmonton, AB T5X 0C7</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Khazana</t>
+          <t>YiFang Taiwan Fruit Tea 一芳台灣水果茶</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Bubble tea</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11528 - 107 Avenue, Edmonton, AB T5H</t>
+          <t>8738 109 Street Northwest, Edmonton, AB T6G 1E9</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lemongrass Cafe</t>
+          <t>Seoul Fried Chicken</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10177 107 Street Northwest, Edmonton, AB T5J 1J5</t>
+          <t>2580-8882 170 St Nw, Edmonton, AB T5T 4M2</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Blue Orchid Chinese Restaurant 明厨</t>
+          <t>Song Tea 丧茶</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Bubble tea</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10417 51 Avenue, Edmonton, AB T6H 0K4</t>
+          <t>7904b 104 Street Northwest, Edmonton, AB T6J 4C8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Co Chin Saigon</t>
+          <t>Dil-E-Punjab Sweets and Restaurant</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11235 Jasper Avenue, Edmonton, AB T5K</t>
+          <t xml:space="preserve"> 3354a Gateway Boulevard Northwest Edmonton, Ab T6j 6v1, </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Shoyu Sushi</t>
+          <t>The Buckingham</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Burgers</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10632 100 Street Northwest, Edmonton, NAMER T5H</t>
+          <t>1531 Mill Woods Road East Nw, Edmonton, AB T6L</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Daawat Authentic Indian Cuisine</t>
+          <t>Oodle Noodle</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Asian fusion</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10011 109 Street Northwest Edmonton, Ab T5j, </t>
+          <t>10439 82 Avenue Northwest, Edmonton, AB T6E 2A1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chicago Deep Dish Pizza</t>
+          <t>Shoyu Sushi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10355 Whyte Ave, Edmonton, AB T6E 1Z9</t>
+          <t>2305 Rabbit Hill Rd Nw #3, Edmonton, AB T6R 3L6</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spirit Bistro</t>
+          <t>Remedy Cafe</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16203 Stony Plain Rd, Edmonton, Alberta T5P 4A2</t>
+          <t xml:space="preserve"> 10011 109 Street Northwest Edmonton, Ab T5j, </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OEB Breakfast Co.</t>
+          <t>Tokyo Express</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Breakfast and brunch</t>
+          <t>Sushi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10824 97 St Nw, Edmonton, AB T5H</t>
+          <t>10479 82 Avenue Northwest, Edmonton, AB T6E</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Acajutla Restaurant</t>
+          <t>New Streets Of India</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1568,200 +1568,200 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Burgers</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10174 100a St Nw, Edmonton, AB T5J</t>
+          <t>11436 104 Ave Nw , Edmonton, AB T5H</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Oodle Noodle</t>
+          <t>Phobulous</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Asian fusion</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11302 107 Ave, Edmonton, AB T5H 0Y3</t>
+          <t>1764 34 Avenue, Edmonton, NAMER T6T</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Namaste India</t>
+          <t>Pho Hoan Pasteur</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10803 82 Avenue Northwest, Edmonton, AB T6E 2B2</t>
+          <t>8701 109 St Nw, Edmonton, Ab T6G 2L5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Little Caesars</t>
+          <t>Tapsilog Filipino Cuisine</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10070 163 St Nw, Edmonton, Ab T5P</t>
+          <t>6566 28 Ave Nw, Edmonton, AB T6L</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Palabok House</t>
+          <t>Good Buddy Chinese Restaurant</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11588 104 Avenue Nw, Edmonton, AB T5K 2S5</t>
+          <t>10617 51 Ave Nw A Edmonton AB T6H</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ramen misoya</t>
+          <t>Chicko Chicken Edmonton</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Japanese: Ramen</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10525 51 Avenue Northwest, Edmonton, AB T6H 0K5</t>
+          <t xml:space="preserve"> 2059 111 Street Northwest Edmonton, Ab T6j 4v9, </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The Mash - Whyte Ave</t>
+          <t>New Everest Indian Multi Kitchen &amp; Bar</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10146 104 St Nw, Edmonton, AB T5J 1A7</t>
+          <t>10633 51 Avenue Northwest, Edmonton, AB T6H 0K8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>I Love Sushi</t>
+          <t>Padmanadi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Vegetarian</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10402 82 Avenue Northwest, Edmonton, NAMER T6E 2A2</t>
+          <t>10540 82 Ave Nw, Edmonton, AB T6E 2A4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dagu Happy Cup 大鼓奶茶</t>
+          <t>Million Thai Restaurant</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10108 105 St Nw, Edmonton, AB T5J</t>
+          <t>106 6925 Gateway Boulevard Northwest, Edmonton, AB T6H 2J1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>New Everest Indian Multi Kitchen &amp; Bar</t>
+          <t>Chettinad Aachy's</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,58 +1771,58 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10408 Jasper Avenue Northwest, Edmonton, AB T5J</t>
+          <t>4109 118 Avenue Northwest, Edmonton, NAMER T5W 1A3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Swagat India Bistro &amp; Bar</t>
+          <t>Doughnut Party</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Asian fusion</t>
+          <t>Bakery</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10540 82 Ave Nw, Edmonton, AB T6E 2A4</t>
+          <t>15525 Stony Plain Road Northwest, Edmonton, AB T5P</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tokyo Express</t>
+          <t>Dagu Happy Cup 大鼓奶茶</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sushi</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9737 118 Ave Nw, Edmonton, T5G</t>
+          <t>11980 104 Ave Nw, Edmonton, Ab T5K 0G6</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>New Asian Village</t>
+          <t>Masala Tree</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1837,36 +1837,36 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12930 82 St Nw, Edmonton, AB T5E 2T2</t>
+          <t>10408 Jasper Avenue Northwest, Edmonton, AB T5J</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Malina Ukrainian Bakery</t>
+          <t>Lovely Pizza &amp; Indian Cuisine</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ukrainian</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9308 34 Ave Nw, Edmonton, AB T6E</t>
+          <t xml:space="preserve"> 2714 141 Street Southwest Edmonton, AB T6W</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Magma Donair, Burgers and Subs</t>
+          <t>Mudpot Restaurant</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1876,63 +1876,63 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Burgers</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Unit 150, 3001 Buckingham Drive, Sherwood Park, NAMER T8H 2N4</t>
+          <t>16615 50 Street Northwest, Edmonton, T5Y</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pizza 73</t>
+          <t>Siam Thai Kitchen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5513 23 Avenue Northwest, Edmonton, AB T6L 7B9</t>
+          <t>23 Ave Nw #2382, Edmonton, AB T6T 0R1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DIVINE The Indian Cuisine</t>
+          <t>Cosmic Pizza and Donair</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">5003 118 Ave Nw, Edmonton, Ab T5w 1b8, Canada, </t>
+          <t>15883 116 Avenue Northwest , Edmonton, AB T5M</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Szechuan Castle</t>
+          <t>Cinnaholic Bakery</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1942,46 +1942,46 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Desserts</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11215 Jasper Avenue Northwest, Edmonton, AB T5K</t>
+          <t>10412 102 Ave, Edmonton, AB T5J 0B4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>An Chay</t>
+          <t>PrimeTime Donair &amp; Poutine - Ermineskin</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Burgers</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>15415 111 Ave Nw, Edmonton, AB T5P</t>
+          <t>10345 82 Ave Nw Unit 101, Edmonton, AB T6E</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Burrito Libre</t>
+          <t>Smokin' Barrels Cocina Latina</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1991,36 +1991,36 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11203 Jasper Ave, Edmonton, AB T5K</t>
+          <t>3004b 106 St, Edmonton, AB T6J 5M5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pizza Unlimited &amp; Fried Chicken</t>
+          <t>Lemongrass Cafe</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8525 112 St Nw, Edmonton, Ab T6g 2l7, NAMER T6G 2L7</t>
+          <t>13119 156 St Nw, Edmonton, AB T5V 1V2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>La Shish Shawarma</t>
+          <t>Tasty Indian Restaurant &amp; Meat Shop</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2030,114 +2030,106 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lebanese</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2386 23 Ave Nw, Edmonton, AB T6T 0R1</t>
+          <t>10417 51 Avenue, Edmonton, AB T6H 0K4</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dream Tea House</t>
+          <t>TasteBuds Hyderabadi Indian Fusion</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10106 118 St Nw, Edmonton, AB T5K</t>
+          <t>12916 127 St Nw, Edmonton, AB T5L 1A9</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Teapsy Lab 2.0</t>
+          <t>Checkers Pizza &amp; Kabab</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bubble tea</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11242 104 Ave Nw, Edmonton, AB T5H</t>
+          <t>5641 Riverbend Road Northwest, Edmonton, AB T6H</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>KFC</t>
+          <t>Y-Not Indian Bar &amp; Bistro</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>American</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10538 82 Avenue Northwest, Edmonton, NAMER T6E 2A4</t>
+          <t>10658 82 Avenue Northwest, Edmonton, NAMER T6E</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vegas Donair and Poutine</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
+          <t>New Gurkha Indian Restaurant &amp; Bar</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fast food</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8036 - 118th Avenue, Edmonton, AB T5B 0R8</t>
+          <t>3311 34 Street Northwest, Edmonton, AB T6T 2K6</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Remedy Cafe</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
+          <t>Kathmandu rasoi Ltd</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>Indian</t>
@@ -2145,54 +2137,50 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8525 112 St Nw, Edmonton, AB T6G 2L7</t>
+          <t>4005 Gateway Blvd Nw, Edmonton, AB T6J</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Jasper Liquor Merchants</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
+          <t>Soban Sushi &amp; Asian Taste</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Sushi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10279 Jasper Avenue, Edmonton, AB T5J</t>
+          <t>17759 98a Ave Nw, Edmonton, AB T5T 5W8</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Marble Slab Creamery</t>
+          <t>Royal Sweets &amp; Restaurant</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ice Cream &amp; Frozen Yogurt</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>11607 Jasper Avenue, Edmonton, AB T5K</t>
+          <t>7450 82 Avenue Northwest, Edmonton, AB T6B 0G2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>New Asian Village Sherwood Park</t>
+          <t>Raja Foods</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2203,7 +2191,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10156 - 109 Street, Edmonton, AB T5J 1M7</t>
+          <t>5065 22 Avenue Southwest, Edmonton, AB T6X</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2201,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>200 - 10 Main Boulevard, Sherwood Park, AB T6H 2E3</t>
+          <t>5173 55 Ave Nw, Edmonton, AB T6B</t>
         </is>
       </c>
     </row>
